--- a/experiment/linear/ex9_1_8/compare/Fuertemente-Estacionario/ex9_1_8_Fuertemente-Estacionario.xlsx
+++ b/experiment/linear/ex9_1_8/compare/Fuertemente-Estacionario/ex9_1_8_Fuertemente-Estacionario.xlsx
@@ -494,13 +494,13 @@
         <v>0.0</v>
       </c>
       <c r="E2">
-        <v>0.00018918</v>
+        <v>0.000336249</v>
       </c>
       <c r="F2">
-        <v>0.01576908</v>
+        <v>0.026890081</v>
       </c>
       <c r="G2">
-        <v>0.000400299309</v>
+        <v>0.0006772643256480219</v>
       </c>
       <c r="H2">
         <v>1601</v>
@@ -535,13 +535,13 @@
         <v>-8.252679975046094e10</v>
       </c>
       <c r="E3">
-        <v>0.03252231</v>
+        <v>0.048937658</v>
       </c>
       <c r="F3">
-        <v>0.04493304</v>
+        <v>0.059332432</v>
       </c>
       <c r="G3">
-        <v>0.03661041153284672</v>
+        <v>0.05180543995876288</v>
       </c>
       <c r="H3">
         <v>23773</v>
